--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#skillmove.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#skillmove.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>##group</t>
   </si>
 </sst>
 </file>
@@ -129,8 +132,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:E8" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="B2:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:E9" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="B3:E9"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/root/item/@ID" xmlDataType="integer"/>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,102 +472,107 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1011</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C5">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="D6">
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E7">
-        <v>-5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>1111</v>
+        <v>1032</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <v>200</v>
       </c>
       <c r="E8">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1111</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
